--- a/xlsx/賽車_intext.xlsx
+++ b/xlsx/賽車_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
   <si>
     <t>賽車</t>
   </si>
@@ -29,7 +29,7 @@
     <t>一級方程式</t>
   </si>
   <si>
-    <t>政策_政策_美國_賽車</t>
+    <t>体育运动_体育运动_国际单项体育联合会总会_賽車</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%B1%BD%E8%BD%A6%E8%81%94%E7%9B%9F</t>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>格蘭披治大賽</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Itala</t>
+  </si>
+  <si>
+    <t>en-Itala</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E7%B4%9A%E6%96%B9%E7%A8%8B%E5%BC%8F%E8%B3%BD%E8%BB%8A</t>
@@ -786,7 +792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1594,7 +1600,7 @@
         <v>54</v>
       </c>
       <c r="G28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
         <v>4</v>
@@ -1623,7 +1629,7 @@
         <v>56</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" t="s">
         <v>4</v>
@@ -1797,7 +1803,7 @@
         <v>68</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H35" t="s">
         <v>4</v>
@@ -1826,7 +1832,7 @@
         <v>70</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
@@ -1855,7 +1861,7 @@
         <v>72</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
@@ -1884,7 +1890,7 @@
         <v>74</v>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
@@ -1907,13 +1913,13 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H39" t="s">
         <v>4</v>
@@ -1936,10 +1942,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="G40" t="n">
         <v>4</v>
@@ -1971,7 +1977,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H41" t="s">
         <v>4</v>
@@ -2052,13 +2058,13 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
         <v>4</v>
@@ -2081,13 +2087,13 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H45" t="s">
         <v>4</v>
@@ -2313,13 +2319,13 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
@@ -2342,13 +2348,13 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="G54" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -2377,7 +2383,7 @@
         <v>102</v>
       </c>
       <c r="G55" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H55" t="s">
         <v>4</v>
@@ -2406,7 +2412,7 @@
         <v>104</v>
       </c>
       <c r="G56" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H56" t="s">
         <v>4</v>
@@ -2435,7 +2441,7 @@
         <v>106</v>
       </c>
       <c r="G57" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H57" t="s">
         <v>4</v>
@@ -2464,7 +2470,7 @@
         <v>108</v>
       </c>
       <c r="G58" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H58" t="s">
         <v>4</v>
@@ -2493,7 +2499,7 @@
         <v>110</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H59" t="s">
         <v>4</v>
@@ -2522,7 +2528,7 @@
         <v>112</v>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
@@ -2551,7 +2557,7 @@
         <v>114</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -2638,7 +2644,7 @@
         <v>120</v>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
@@ -2696,7 +2702,7 @@
         <v>124</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
@@ -2899,7 +2905,7 @@
         <v>138</v>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H73" t="s">
         <v>4</v>
@@ -2928,12 +2934,41 @@
         <v>140</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H74" t="s">
         <v>4</v>
       </c>
       <c r="I74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>141</v>
+      </c>
+      <c r="F75" t="s">
+        <v>142</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>4</v>
+      </c>
+      <c r="I75" t="n">
         <v>3</v>
       </c>
     </row>
